--- a/holdings/yolo/03-23-21.xlsx
+++ b/holdings/yolo/03-23-21.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/22/2021</t>
+          <t>3/23/2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13.72 </t>
+          <t xml:space="preserve"> 13.65 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59,219,581.12 </t>
+          <t xml:space="preserve"> 58,917,440.40 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14.07%</t>
+          <t>14.42%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18.76 </t>
+          <t xml:space="preserve"> 18.12 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,526,873.36 </t>
+          <t xml:space="preserve"> 40,110,178.32 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9.86%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 175.60 </t>
+          <t xml:space="preserve"> 172.33 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,791,192.80 </t>
+          <t xml:space="preserve"> 32,180,559.54 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -650,17 +650,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.46 </t>
+          <t xml:space="preserve"> 32.45 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,637,065.74 </t>
+          <t xml:space="preserve"> 30,682,091.55 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.52%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -674,42 +674,42 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GRWG</t>
+          <t>GWPH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39986L109</t>
+          <t>36197T103</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GROWGENERATION CORP</t>
+          <t>GW PHARMACEUTICALS -ADR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 527,972.00 </t>
+          <t xml:space="preserve"> 130,125.00 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.19 </t>
+          <t xml:space="preserve"> 214.36 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29,138,774.68 </t>
+          <t xml:space="preserve"> 27,893,595.00 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>FS</t>
         </is>
       </c>
     </row>
@@ -718,42 +718,42 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GWPH</t>
+          <t>GRWG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36197T103</t>
+          <t>39986L109</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GW PHARMACEUTICALS -ADR</t>
+          <t>GROWGENERATION CORP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130,125.00 </t>
+          <t xml:space="preserve"> 527,972.00 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 215.33 </t>
+          <t xml:space="preserve"> 52.17 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28,019,816.25 </t>
+          <t xml:space="preserve"> 27,544,299.24 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>6.74%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -782,17 +782,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.94 </t>
+          <t xml:space="preserve"> 15.25 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23,830,300.00 </t>
+          <t xml:space="preserve"> 22,798,750.00 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.75 </t>
+          <t xml:space="preserve"> 30.91 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23,287,500.00 </t>
+          <t xml:space="preserve"> 21,327,279.00 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.53%</t>
+          <t>5.22%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -865,22 +865,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,410,282.00 </t>
+          <t xml:space="preserve"> 2,580,282.00 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.28 </t>
+          <t xml:space="preserve"> 6.35 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15,136,570.96 </t>
+          <t xml:space="preserve"> 16,384,790.70 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.60%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -894,37 +894,37 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HRVSF</t>
+          <t>TCNNF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HRVSFFFS</t>
+          <t>TCNNFTRS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HARVESTHEALTH SWAP R</t>
+          <t>TRULIEVE CANNABIS SWAP REC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,950,000.00 </t>
+          <t xml:space="preserve"> 319,265.00 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.29 </t>
+          <t xml:space="preserve"> 48.05 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12,995,500.00 </t>
+          <t xml:space="preserve"> 15,340,683.25 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.09%</t>
+          <t>3.75%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -938,42 +938,42 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIV</t>
+          <t>CRLBF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BMFBP84</t>
+          <t>CRLBFTRS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RIV CAPITAL INC</t>
+          <t>CRESCO LABS INC SWAP REC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,621,146.00 </t>
+          <t xml:space="preserve"> 1,129,523.00 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 </t>
+          <t xml:space="preserve"> 13.32 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,844,854.08 </t>
+          <t xml:space="preserve"> 15,041,744.84 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -982,37 +982,37 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TCNNF</t>
+          <t>HRVSF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TCNNFTRS</t>
+          <t>HRVSFFFS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRULIEVE CANNABIS SWAP REC</t>
+          <t>HARVESTHEALTH SWAP R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 235,265.00 </t>
+          <t xml:space="preserve"> 3,950,000.00 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.77 </t>
+          <t xml:space="preserve"> 3.08 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,709,139.05 </t>
+          <t xml:space="preserve"> 12,166,000.00 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.78%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1026,42 +1026,42 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARNA</t>
+          <t>RIV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>040047607</t>
+          <t>BMFBP84</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARENA PHARMACEUTICALS INC</t>
+          <t>RIV CAPITAL INC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 149,336.00 </t>
+          <t xml:space="preserve"> 5,621,146.00 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76.51 </t>
+          <t xml:space="preserve"> 1.95 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11,425,697.36 </t>
+          <t xml:space="preserve"> 10,973,989.16 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>2.69%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>FS</t>
         </is>
       </c>
     </row>
@@ -1070,42 +1070,42 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CRLBF</t>
+          <t>ARNA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CRLBFTRS</t>
+          <t>040047607</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CRESCO LABS INC SWAP REC</t>
+          <t>ARENA PHARMACEUTICALS INC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 754,523.00 </t>
+          <t xml:space="preserve"> 149,336.00 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13.63 </t>
+          <t xml:space="preserve"> 72.96 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10,281,734.02 </t>
+          <t xml:space="preserve"> 10,895,554.56 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>2.67%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1114,42 +1114,42 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CWEB</t>
+          <t>SOLCF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BGHY2B1</t>
+          <t>SOLCFFFS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CHARLOTTES WEB HOLDINGS INC</t>
+          <t>SOL GLOBAL INVESTMENTS CORP SWAP REC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,715,791.00 </t>
+          <t xml:space="preserve"> 2,834,625.00 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.69 </t>
+          <t xml:space="preserve"> 3.32 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8,052,720.66 </t>
+          <t xml:space="preserve"> 9,410,955.00 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>2.30%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1158,42 +1158,42 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOLCF</t>
+          <t>CWEB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOLCFFFS</t>
+          <t>BGHY2B1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOL GLOBAL INVESTMENTS CORP SWAP REC</t>
+          <t>CHARLOTTES WEB HOLDINGS INC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,334,625.00 </t>
+          <t xml:space="preserve"> 1,715,791.00 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.19 </t>
+          <t xml:space="preserve"> 4.54 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7,447,453.75 </t>
+          <t xml:space="preserve"> 7,793,146.10 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>FS</t>
         </is>
       </c>
     </row>
@@ -1222,17 +1222,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.08 </t>
+          <t xml:space="preserve"> 3.98 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,345,746.56 </t>
+          <t xml:space="preserve"> 5,214,723.36 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.50 </t>
+          <t xml:space="preserve"> 2.20 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5,287,727.50 </t>
+          <t xml:space="preserve"> 4,653,200.20 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.69 </t>
+          <t xml:space="preserve"> 3.56 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4,268,967.03 </t>
+          <t xml:space="preserve"> 4,123,452.56 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1334,32 +1334,32 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GNLN</t>
+          <t>VLNS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>395330103</t>
+          <t>BKMPJ38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GREENLANE HOLDINGS INC - A</t>
+          <t>VALENS CO INC/THE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 654,150.00 </t>
+          <t xml:space="preserve"> 1,832,580.00 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.46 </t>
+          <t xml:space="preserve"> 1.90 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,571,659.00 </t>
+          <t xml:space="preserve"> 3,475,469.46 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>FS</t>
         </is>
       </c>
     </row>
@@ -1378,42 +1378,42 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VLNS</t>
+          <t>GNLN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BKMPJ38</t>
+          <t>395330103</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VALENS CO INC/THE</t>
+          <t>GREENLANE HOLDINGS INC - A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,832,580.00 </t>
+          <t xml:space="preserve"> 654,150.00 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.84 </t>
+          <t xml:space="preserve"> 5.24 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3,378,903.94 </t>
+          <t xml:space="preserve"> 3,427,746.00 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1442,12 +1442,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.54 </t>
+          <t xml:space="preserve"> 0.53 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2,230,631.76 </t>
+          <t xml:space="preserve"> 2,161,402.05 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.43 </t>
+          <t xml:space="preserve"> 4.30 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,718,875.44 </t>
+          <t xml:space="preserve"> 1,668,434.40 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.54 </t>
+          <t xml:space="preserve"> 1.52 </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,484,138.04 </t>
+          <t xml:space="preserve"> 1,464,863.52 </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1554,32 +1554,32 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZYNE</t>
+          <t>TLRY</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98986X109</t>
+          <t>88688T100</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ZYNERBA PHARMACEUTICALS INC</t>
+          <t>TILRAY INC-CLASS 2 COMMON</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 280,133.00 </t>
+          <t xml:space="preserve"> 59,712.00 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.11 </t>
+          <t xml:space="preserve"> 23.22 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,431,479.63 </t>
+          <t xml:space="preserve"> 1,386,512.64 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1598,32 +1598,32 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TLRY</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88688T100</t>
+          <t>73933H101</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TILRAY INC-CLASS 2 COMMON</t>
+          <t>POWER REIT</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59,712.00 </t>
+          <t xml:space="preserve"> 32,195.00 </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23.90 </t>
+          <t xml:space="preserve"> 42.91 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,427,116.80 </t>
+          <t xml:space="preserve"> 1,381,487.45 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1642,37 +1642,37 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>ZYNE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73933H101</t>
+          <t>98986X109</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>POWER REIT</t>
+          <t>ZYNERBA PHARMACEUTICALS INC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,195.00 </t>
+          <t xml:space="preserve"> 280,133.00 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.49 </t>
+          <t xml:space="preserve"> 4.89 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,400,160.55 </t>
+          <t xml:space="preserve"> 1,369,850.37 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.75 </t>
+          <t xml:space="preserve"> 9.54 </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,309,951.50 </t>
+          <t xml:space="preserve"> 1,281,737.16 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.76 </t>
+          <t xml:space="preserve"> 3.65 </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,225,878.21 </t>
+          <t xml:space="preserve"> 1,190,048.19 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.34 </t>
+          <t xml:space="preserve"> 2.13 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,149,234.84 </t>
+          <t xml:space="preserve"> 1,046,098.38 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.40 </t>
+          <t xml:space="preserve"> 0.38 </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 920,077.02 </t>
+          <t xml:space="preserve"> 881,795.90 </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.24 </t>
+          <t xml:space="preserve"> 0.23 </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 499,856.00 </t>
+          <t xml:space="preserve"> 490,561.59 </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.57 </t>
+          <t xml:space="preserve"> 0.51 </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 482,223.66 </t>
+          <t xml:space="preserve"> 433,953.10 </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.06 </t>
+          <t xml:space="preserve"> 6.74 </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 434,500.64 </t>
+          <t xml:space="preserve"> 414,806.56 </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.16 </t>
+          <t xml:space="preserve"> 7.87 </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 408,000.00 </t>
+          <t xml:space="preserve"> 393,500.00 </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2038,32 +2038,32 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WMD</t>
+          <t>FIRE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BDH43N9</t>
+          <t>BFN2HL7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WEEDMD INC</t>
+          <t>SUPREME CANNABIS CO INC/THE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 920,247.00 </t>
+          <t xml:space="preserve"> 1,287,493.00 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.31 </t>
+          <t xml:space="preserve"> 0.21 </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 286,463.93 </t>
+          <t xml:space="preserve"> 271,871.91 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2082,37 +2082,37 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FIRE</t>
+          <t>WMD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BFN2HL7</t>
+          <t>BDH43N9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SUPREME CANNABIS CO INC/THE</t>
+          <t>WEEDMD INC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1,287,493.00 </t>
+          <t xml:space="preserve"> 920,247.00 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.22 </t>
+          <t xml:space="preserve"> 0.29 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 282,604.13 </t>
+          <t xml:space="preserve"> 263,985.75 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.55 </t>
+          <t xml:space="preserve"> 1.49 </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 263,239.81 </t>
+          <t xml:space="preserve"> 253,316.87 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.26 </t>
+          <t xml:space="preserve"> 0.25 </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 226,970.55 </t>
+          <t xml:space="preserve"> 219,618.72 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.70 </t>
+          <t xml:space="preserve"> 9.32 </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 177,781.60 </t>
+          <t xml:space="preserve"> 170,816.96 </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130,569.60 </t>
+          <t xml:space="preserve"> 131,776.00 </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
